--- a/code/R/Selectivity parameters/BabcockRockfishInputs.xlsx
+++ b/code/R/Selectivity parameters/BabcockRockfishInputs.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vic\Documents\Projects\MS-thesis\code\R\Selectivity parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6140F76C-F3E6-4A58-A375-1A04DBE52896}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C4CB85-7833-4758-9666-D98DA21102DE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="360" windowWidth="25440" windowHeight="15390"/>
+    <workbookView xWindow="13584" yWindow="288" windowWidth="5940" windowHeight="11736" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BabcockRockfishInputs" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -346,7 +354,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -483,7 +491,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -669,8 +677,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -785,6 +829,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -830,10 +911,18 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1188,14 +1277,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:B67"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1917,7 +2009,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -1961,7 +2053,7 @@
       <c r="A39" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="3">
         <v>0.45</v>
       </c>
       <c r="C39">
@@ -1981,7 +2073,7 @@
       <c r="A40" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="4">
         <v>25.2</v>
       </c>
       <c r="C40">
@@ -2001,7 +2093,7 @@
       <c r="A41" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="5">
         <v>31</v>
       </c>
       <c r="C41">
@@ -2021,7 +2113,7 @@
       <c r="A42" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="5">
         <v>29</v>
       </c>
       <c r="C42">
@@ -2041,7 +2133,7 @@
       <c r="A43" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="6">
         <v>1.28</v>
       </c>
       <c r="C43">
@@ -2061,7 +2153,7 @@
       <c r="A44" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="7">
         <v>36.700000000000003</v>
       </c>
       <c r="C44">
@@ -2081,7 +2173,7 @@
       <c r="A45" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="8">
         <v>0.26500000000000001</v>
       </c>
       <c r="C45">
@@ -2101,7 +2193,7 @@
       <c r="A46" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="9">
         <v>0.71</v>
       </c>
       <c r="C46">
@@ -2117,11 +2209,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="10">
         <v>2</v>
       </c>
       <c r="C47">
@@ -2161,7 +2253,7 @@
       <c r="A49" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="3">
         <v>0.36899999999999999</v>
       </c>
       <c r="C49">
@@ -2181,7 +2273,7 @@
       <c r="A50" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="4">
         <v>33.200000000000003</v>
       </c>
       <c r="C50">
@@ -2201,7 +2293,7 @@
       <c r="A51" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="5">
         <v>39</v>
       </c>
       <c r="C51">
@@ -2221,7 +2313,7 @@
       <c r="A52" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="5">
         <v>29</v>
       </c>
       <c r="C52">
@@ -2241,7 +2333,7 @@
       <c r="A53" t="s">
         <v>57</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="6">
         <v>0.41899999999999998</v>
       </c>
       <c r="C53">
@@ -2261,7 +2353,7 @@
       <c r="A54" t="s">
         <v>58</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="7">
         <v>46.4</v>
       </c>
       <c r="C54">
@@ -2281,7 +2373,7 @@
       <c r="A55" t="s">
         <v>59</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="8">
         <v>0.28999999999999998</v>
       </c>
       <c r="C55">
@@ -2301,7 +2393,7 @@
       <c r="A56" t="s">
         <v>60</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="9">
         <v>0.28000000000000003</v>
       </c>
       <c r="C56">
@@ -2317,11 +2409,11 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>61</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="10">
         <v>1</v>
       </c>
       <c r="C57">
@@ -2361,7 +2453,7 @@
       <c r="A59" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="3">
         <v>0.42599999999999999</v>
       </c>
       <c r="C59">
@@ -2381,7 +2473,7 @@
       <c r="A60" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="4">
         <v>46</v>
       </c>
       <c r="C60">
@@ -2401,7 +2493,7 @@
       <c r="A61" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="5">
         <v>0</v>
       </c>
       <c r="C61">
@@ -2421,7 +2513,7 @@
       <c r="A62" t="s">
         <v>66</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="5">
         <v>0</v>
       </c>
       <c r="C62">
@@ -2441,7 +2533,7 @@
       <c r="A63" t="s">
         <v>67</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="6">
         <v>0</v>
       </c>
       <c r="C63">
@@ -2461,7 +2553,7 @@
       <c r="A64" t="s">
         <v>68</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="7">
         <v>50</v>
       </c>
       <c r="C64">
@@ -2481,7 +2573,7 @@
       <c r="A65" t="s">
         <v>69</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="8">
         <v>0</v>
       </c>
       <c r="C65">
@@ -2501,7 +2593,7 @@
       <c r="A66" t="s">
         <v>70</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="9">
         <v>0.01</v>
       </c>
       <c r="C66">
@@ -2517,11 +2609,11 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>71</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="10">
         <v>1</v>
       </c>
       <c r="C67">
@@ -3239,5 +3331,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/code/R/Selectivity parameters/BabcockRockfishInputs.xlsx
+++ b/code/R/Selectivity parameters/BabcockRockfishInputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vic\Documents\Projects\MS-thesis\code\R\Selectivity parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C4CB85-7833-4758-9666-D98DA21102DE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC84088-4DB8-41D8-A374-2B1B3C7E0C26}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13584" yWindow="288" windowWidth="5940" windowHeight="11736" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8352" yWindow="0" windowWidth="7176" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BabcockRockfishInputs" sheetId="1" r:id="rId1"/>
@@ -491,7 +491,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -710,6 +710,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -914,7 +920,6 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
@@ -923,6 +928,7 @@
     <xf numFmtId="0" fontId="0" fillId="39" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1281,7 +1287,7 @@
   <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2033,7 +2039,7 @@
       <c r="A38" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="10">
         <v>20</v>
       </c>
       <c r="C38">
@@ -2053,7 +2059,7 @@
       <c r="A39" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="2">
         <v>0.45</v>
       </c>
       <c r="C39">
@@ -2073,7 +2079,7 @@
       <c r="A40" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="3">
         <v>25.2</v>
       </c>
       <c r="C40">
@@ -2093,7 +2099,7 @@
       <c r="A41" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="4">
         <v>31</v>
       </c>
       <c r="C41">
@@ -2113,7 +2119,7 @@
       <c r="A42" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="4">
         <v>29</v>
       </c>
       <c r="C42">
@@ -2133,7 +2139,7 @@
       <c r="A43" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="5">
         <v>1.28</v>
       </c>
       <c r="C43">
@@ -2153,7 +2159,7 @@
       <c r="A44" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="6">
         <v>36.700000000000003</v>
       </c>
       <c r="C44">
@@ -2173,7 +2179,7 @@
       <c r="A45" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45" s="7">
         <v>0.26500000000000001</v>
       </c>
       <c r="C45">
@@ -2193,7 +2199,7 @@
       <c r="A46" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B46" s="8">
         <v>0.71</v>
       </c>
       <c r="C46">
@@ -2213,7 +2219,7 @@
       <c r="A47" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47" s="9">
         <v>2</v>
       </c>
       <c r="C47">
@@ -2233,7 +2239,7 @@
       <c r="A48" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="10">
         <v>20</v>
       </c>
       <c r="C48">
@@ -2253,7 +2259,7 @@
       <c r="A49" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="2">
         <v>0.36899999999999999</v>
       </c>
       <c r="C49">
@@ -2273,7 +2279,7 @@
       <c r="A50" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="3">
         <v>33.200000000000003</v>
       </c>
       <c r="C50">
@@ -2293,7 +2299,7 @@
       <c r="A51" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="4">
         <v>39</v>
       </c>
       <c r="C51">
@@ -2313,7 +2319,7 @@
       <c r="A52" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="4">
         <v>29</v>
       </c>
       <c r="C52">
@@ -2333,7 +2339,7 @@
       <c r="A53" t="s">
         <v>57</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53" s="5">
         <v>0.41899999999999998</v>
       </c>
       <c r="C53">
@@ -2353,7 +2359,7 @@
       <c r="A54" t="s">
         <v>58</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54" s="6">
         <v>46.4</v>
       </c>
       <c r="C54">
@@ -2373,7 +2379,7 @@
       <c r="A55" t="s">
         <v>59</v>
       </c>
-      <c r="B55" s="8">
+      <c r="B55" s="7">
         <v>0.28999999999999998</v>
       </c>
       <c r="C55">
@@ -2393,7 +2399,7 @@
       <c r="A56" t="s">
         <v>60</v>
       </c>
-      <c r="B56" s="9">
+      <c r="B56" s="8">
         <v>0.28000000000000003</v>
       </c>
       <c r="C56">
@@ -2413,7 +2419,7 @@
       <c r="A57" t="s">
         <v>61</v>
       </c>
-      <c r="B57" s="10">
+      <c r="B57" s="9">
         <v>1</v>
       </c>
       <c r="C57">
@@ -2433,7 +2439,7 @@
       <c r="A58" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="10">
         <v>20</v>
       </c>
       <c r="C58">
@@ -2453,7 +2459,7 @@
       <c r="A59" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="2">
         <v>0.42599999999999999</v>
       </c>
       <c r="C59">
@@ -2473,7 +2479,7 @@
       <c r="A60" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60" s="3">
         <v>46</v>
       </c>
       <c r="C60">
@@ -2493,7 +2499,7 @@
       <c r="A61" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B61" s="4">
         <v>0</v>
       </c>
       <c r="C61">
@@ -2513,7 +2519,7 @@
       <c r="A62" t="s">
         <v>66</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B62" s="4">
         <v>0</v>
       </c>
       <c r="C62">
@@ -2533,7 +2539,7 @@
       <c r="A63" t="s">
         <v>67</v>
       </c>
-      <c r="B63" s="6">
+      <c r="B63" s="5">
         <v>0</v>
       </c>
       <c r="C63">
@@ -2553,7 +2559,7 @@
       <c r="A64" t="s">
         <v>68</v>
       </c>
-      <c r="B64" s="7">
+      <c r="B64" s="6">
         <v>50</v>
       </c>
       <c r="C64">
@@ -2573,7 +2579,7 @@
       <c r="A65" t="s">
         <v>69</v>
       </c>
-      <c r="B65" s="8">
+      <c r="B65" s="7">
         <v>0</v>
       </c>
       <c r="C65">
@@ -2593,7 +2599,7 @@
       <c r="A66" t="s">
         <v>70</v>
       </c>
-      <c r="B66" s="9">
+      <c r="B66" s="8">
         <v>0.01</v>
       </c>
       <c r="C66">
@@ -2613,7 +2619,7 @@
       <c r="A67" t="s">
         <v>71</v>
       </c>
-      <c r="B67" s="10">
+      <c r="B67" s="9">
         <v>1</v>
       </c>
       <c r="C67">
